--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1486,10 +1490,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1928,13 +1932,13 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>74</v>
@@ -1945,10 +1949,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1959,7 +1963,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1968,19 +1972,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2030,13 +2034,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -2059,10 +2063,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2073,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -2082,16 +2086,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2142,19 +2146,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2171,10 +2175,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2185,28 +2189,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2256,19 +2260,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2285,10 +2289,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2299,7 +2303,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2311,16 +2315,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2346,13 +2350,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2370,19 +2374,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2399,21 +2403,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2425,16 +2429,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2484,25 +2488,25 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2513,14 +2517,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2539,16 +2543,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2598,7 +2602,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2616,7 +2620,7 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2627,14 +2631,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2653,16 +2657,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2712,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2724,13 +2728,13 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2741,14 +2745,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2761,25 +2765,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2828,7 +2832,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2840,13 +2844,13 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2857,10 +2861,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2880,22 +2884,22 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2944,7 +2948,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2956,27 +2960,27 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2996,16 +3000,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3056,7 +3060,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3068,13 +3072,13 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
@@ -3085,10 +3089,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3108,19 +3112,19 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3170,7 +3174,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3182,13 +3186,13 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3199,14 +3203,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3222,16 +3226,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3282,7 +3286,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3294,13 +3298,13 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -3311,14 +3315,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3334,19 +3338,19 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3396,7 +3400,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3408,13 +3412,13 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3425,10 +3429,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3436,31 +3440,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3486,13 +3490,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3510,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3539,21 +3543,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3562,19 +3566,19 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3600,13 +3604,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3624,25 +3628,25 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3653,10 +3657,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3667,7 +3671,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3676,16 +3680,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3712,13 +3716,13 @@
         <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>74</v>
@@ -3736,28 +3740,28 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3765,21 +3769,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3788,20 +3792,20 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3826,13 +3830,13 @@
         <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>74</v>
@@ -3850,39 +3854,39 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3893,7 +3897,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3905,13 +3909,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3962,13 +3966,13 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
@@ -3980,7 +3984,7 @@
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3991,14 +3995,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4017,16 +4021,16 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4064,19 +4068,19 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4088,13 +4092,13 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4105,10 +4109,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4128,22 +4132,22 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -4180,17 +4184,17 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4202,30 +4206,30 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>74</v>
@@ -4235,7 +4239,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4244,22 +4248,22 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4269,7 +4273,7 @@
         <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>74</v>
@@ -4308,7 +4312,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4320,30 +4324,30 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>74</v>
@@ -4353,7 +4357,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4362,22 +4366,22 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4387,7 +4391,7 @@
         <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>74</v>
@@ -4426,7 +4430,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4438,30 +4442,30 @@
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
@@ -4471,7 +4475,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4480,22 +4484,22 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4505,7 +4509,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -4544,7 +4548,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4556,27 +4560,27 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4587,7 +4591,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4596,22 +4600,22 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4660,50 +4664,50 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4712,16 +4716,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4772,39 +4776,39 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4815,7 +4819,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4824,19 +4828,19 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4886,39 +4890,39 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4929,7 +4933,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4938,19 +4942,19 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5000,39 +5004,39 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5043,7 +5047,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -5052,16 +5056,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5112,28 +5116,28 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5141,10 +5145,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5155,7 +5159,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5164,16 +5168,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5224,28 +5228,28 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5253,10 +5257,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5276,16 +5280,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5336,7 +5340,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5348,13 +5352,13 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5365,10 +5369,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5379,7 +5383,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5391,13 +5395,13 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5448,13 +5452,13 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
@@ -5466,7 +5470,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5477,14 +5481,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5503,16 +5507,16 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5562,7 +5566,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5574,13 +5578,13 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5591,14 +5595,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5611,25 +5615,25 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5678,7 +5682,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5690,13 +5694,13 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5707,10 +5711,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5721,7 +5725,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5730,20 +5734,20 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5768,13 +5772,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5792,39 +5796,39 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5832,10 +5836,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5844,20 +5848,20 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5906,39 +5910,39 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5949,7 +5953,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5961,17 +5965,17 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -6020,25 +6024,25 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6049,10 +6053,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6063,7 +6067,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6072,20 +6076,20 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6134,28 +6138,28 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6163,10 +6167,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6186,19 +6190,19 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6224,13 +6228,13 @@
         <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6248,7 +6252,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6260,16 +6264,16 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6277,10 +6281,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6300,19 +6304,19 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6362,7 +6366,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6374,16 +6378,16 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6391,10 +6395,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6414,19 +6418,19 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6452,11 +6456,11 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6474,7 +6478,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6486,27 +6490,27 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6517,7 +6521,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6526,19 +6530,19 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6564,13 +6568,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6588,25 +6592,25 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6617,10 +6621,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6643,16 +6647,16 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6702,7 +6706,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6714,13 +6718,13 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6731,10 +6735,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6757,16 +6761,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6792,13 +6796,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6816,7 +6820,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6828,13 +6832,13 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6845,10 +6849,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6871,17 +6875,17 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6930,7 +6934,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6942,13 +6946,13 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6959,10 +6963,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6985,13 +6989,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7018,13 +7022,13 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -7042,7 +7046,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7054,13 +7058,13 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7071,10 +7075,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7097,13 +7101,13 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7154,7 +7158,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7166,27 +7170,27 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7209,13 +7213,13 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7266,7 +7270,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7278,13 +7282,13 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7295,10 +7299,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7309,7 +7313,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7321,13 +7325,13 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7378,13 +7382,13 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
@@ -7396,7 +7400,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7407,14 +7411,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7433,16 +7437,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7492,7 +7496,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7504,13 +7508,13 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7521,14 +7525,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7541,25 +7545,25 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7608,7 +7612,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7620,13 +7624,13 @@
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7637,10 +7641,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7651,7 +7655,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7663,13 +7667,13 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7696,13 +7700,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7720,25 +7724,25 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7749,10 +7753,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7760,10 +7764,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7775,13 +7779,13 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7832,25 +7836,25 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7861,10 +7865,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7887,19 +7891,19 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7948,7 +7952,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7960,13 +7964,13 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7977,10 +7981,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8003,16 +8007,16 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8038,13 +8042,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8062,7 +8066,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8074,13 +8078,13 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
@@ -352,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -487,7 +487,7 @@
     <t>Procedure.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1|Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
+    <t xml:space="preserve">Reference(Procedure|4.0.1|Observation|4.0.1|MedicationAdministration|4.0.1)
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
     <t>A code that identifies the reason a procedure was not performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -645,7 +645,7 @@
     <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -673,7 +673,7 @@
     <t>A code to identify a specific procedure .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -840,7 +840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -865,7 +865,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -921,7 +921,7 @@
     <t>Procedure.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1009,7 +1009,7 @@
     <t>A code that identifies the role of a performer of the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1024,7 +1024,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1071,7 +1071,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1105,7 +1105,7 @@
     <t>A code that identifies the reason a procedure is  required.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1120,7 +1120,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|Procedure|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|Procedure|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1149,7 +1149,7 @@
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1173,7 +1173,7 @@
     <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1182,7 +1182,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|DocumentReference|Composition)
+    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
 </t>
   </si>
   <si>
@@ -1213,7 +1213,7 @@
     <t>Codes describing complications that resulted from a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1222,7 +1222,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -1247,7 +1247,7 @@
     <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-followup|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1308,7 +1308,7 @@
     <t>A kind of change that happened to the device during the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-action</t>
+    <t>http://hl7.org/fhir/ValueSet/device-action|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1317,7 +1317,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1333,7 +1333,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Medication|Substance)
+    <t xml:space="preserve">Reference(Device|4.0.1|Medication|4.0.1|Substance|4.0.1)
 </t>
   </si>
   <si>
@@ -1365,7 +1365,7 @@
     <t>Codes describing items used during a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
+    <t>http://hl7.org/fhir/ValueSet/device-kind|4.0.1</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1672,17 +1672,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.2890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.2890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1691,26 +1691,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.0546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.48828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.6328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.95703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="142.56640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="105.16015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="122.22265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="90.15625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
